--- a/test/demand20.xlsx
+++ b/test/demand20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin Yusnoveri\Desktop\Heavensward\InventoryManagementModel\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\All_JS\InventoryManagementModel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59591967-1206-4796-A82B-8D734A286D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4BA32D-70ED-453F-AC7E-7320CAA18098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,111 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
+    <t>1/13/2020</t>
+  </si>
+  <si>
+    <t>1/14/2020</t>
+  </si>
+  <si>
+    <t>1/15/2020</t>
+  </si>
+  <si>
+    <t>1/16/2020</t>
+  </si>
+  <si>
+    <t>1/17/2020</t>
+  </si>
+  <si>
+    <t>1/18/2020</t>
+  </si>
+  <si>
+    <t>1/19/2020</t>
+  </si>
+  <si>
+    <t>1/20/2020</t>
+  </si>
+  <si>
+    <t>1/21/2020</t>
+  </si>
+  <si>
+    <t>1/22/2020</t>
+  </si>
+  <si>
+    <t>1/23/2020</t>
+  </si>
+  <si>
+    <t>1/24/2020</t>
+  </si>
+  <si>
+    <t>1/25/2020</t>
+  </si>
+  <si>
+    <t>1/26/2020</t>
+  </si>
+  <si>
+    <t>1/27/2020</t>
+  </si>
+  <si>
+    <t>1/28/2020</t>
+  </si>
+  <si>
+    <t>1/29/2020</t>
+  </si>
+  <si>
+    <t>1/30/2020</t>
+  </si>
+  <si>
+    <t>1/31/2020</t>
+  </si>
+  <si>
+    <t>2/13/2020</t>
+  </si>
+  <si>
+    <t>2/14/2020</t>
+  </si>
+  <si>
+    <t>2/15/2020</t>
+  </si>
+  <si>
+    <t>2/16/2020</t>
+  </si>
+  <si>
+    <t>2/17/2020</t>
+  </si>
+  <si>
+    <t>2/18/2020</t>
+  </si>
+  <si>
+    <t>2/19/2020</t>
+  </si>
+  <si>
+    <t>2/20/2020</t>
+  </si>
+  <si>
+    <t>2/21/2020</t>
+  </si>
+  <si>
+    <t>2/22/2020</t>
+  </si>
+  <si>
+    <t>2/23/2020</t>
+  </si>
+  <si>
+    <t>2/24/2020</t>
+  </si>
+  <si>
+    <t>2/25/2020</t>
+  </si>
+  <si>
+    <t>2/26/2020</t>
+  </si>
+  <si>
+    <t>2/27/2020</t>
+  </si>
+  <si>
+    <t>2/28/2020</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
@@ -40,118 +145,13 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>1/13/2020</t>
-  </si>
-  <si>
-    <t>1/14/2020</t>
-  </si>
-  <si>
-    <t>1/15/2020</t>
-  </si>
-  <si>
-    <t>1/16/2020</t>
-  </si>
-  <si>
-    <t>1/17/2020</t>
-  </si>
-  <si>
-    <t>1/18/2020</t>
-  </si>
-  <si>
-    <t>1/19/2020</t>
-  </si>
-  <si>
-    <t>1/20/2020</t>
-  </si>
-  <si>
-    <t>1/21/2020</t>
-  </si>
-  <si>
-    <t>1/22/2020</t>
-  </si>
-  <si>
-    <t>1/23/2020</t>
-  </si>
-  <si>
-    <t>1/24/2020</t>
-  </si>
-  <si>
-    <t>1/25/2020</t>
-  </si>
-  <si>
-    <t>1/26/2020</t>
-  </si>
-  <si>
-    <t>1/27/2020</t>
-  </si>
-  <si>
-    <t>1/28/2020</t>
-  </si>
-  <si>
-    <t>1/29/2020</t>
-  </si>
-  <si>
-    <t>1/30/2020</t>
-  </si>
-  <si>
-    <t>1/31/2020</t>
-  </si>
-  <si>
-    <t>2/13/2020</t>
-  </si>
-  <si>
-    <t>2/14/2020</t>
-  </si>
-  <si>
-    <t>2/15/2020</t>
-  </si>
-  <si>
-    <t>2/16/2020</t>
-  </si>
-  <si>
-    <t>2/17/2020</t>
-  </si>
-  <si>
-    <t>2/18/2020</t>
-  </si>
-  <si>
-    <t>2/19/2020</t>
-  </si>
-  <si>
-    <t>2/20/2020</t>
-  </si>
-  <si>
-    <t>2/21/2020</t>
-  </si>
-  <si>
-    <t>2/22/2020</t>
-  </si>
-  <si>
-    <t>2/23/2020</t>
-  </si>
-  <si>
-    <t>2/24/2020</t>
-  </si>
-  <si>
-    <t>2/25/2020</t>
-  </si>
-  <si>
-    <t>2/26/2020</t>
-  </si>
-  <si>
-    <t>2/27/2020</t>
-  </si>
-  <si>
-    <t>2/28/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +162,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,10 +192,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -196,8 +205,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -476,32 +487,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="5" width="20.578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
@@ -518,7 +533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>43862</v>
       </c>
@@ -535,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>43891</v>
       </c>
@@ -552,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>43922</v>
       </c>
@@ -569,7 +584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>43952</v>
       </c>
@@ -586,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>43983</v>
       </c>
@@ -603,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>44013</v>
       </c>
@@ -620,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>44044</v>
       </c>
@@ -637,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>44075</v>
       </c>
@@ -654,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>44105</v>
       </c>
@@ -671,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>44136</v>
       </c>
@@ -688,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>44166</v>
       </c>
@@ -705,9 +720,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -722,9 +737,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -739,9 +754,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -756,9 +771,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2">
         <v>0</v>
@@ -773,9 +788,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2">
         <v>0</v>
@@ -790,9 +805,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -807,9 +822,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -824,9 +839,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
@@ -841,9 +856,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2">
         <v>6</v>
@@ -858,9 +873,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -875,9 +890,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2">
         <v>26</v>
@@ -892,9 +907,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -909,9 +924,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -926,9 +941,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -943,9 +958,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -960,9 +975,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B29" s="2">
         <v>0</v>
@@ -977,9 +992,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B30" s="2">
         <v>7</v>
@@ -994,9 +1009,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -1011,9 +1026,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B32" s="2">
         <v>23</v>
@@ -1028,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>43832</v>
       </c>
@@ -1045,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>43863</v>
       </c>
@@ -1062,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>43892</v>
       </c>
@@ -1079,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>43923</v>
       </c>
@@ -1096,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>43953</v>
       </c>
@@ -1113,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>43984</v>
       </c>
@@ -1130,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>44014</v>
       </c>
@@ -1147,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>44045</v>
       </c>
@@ -1164,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>44076</v>
       </c>
@@ -1181,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>44106</v>
       </c>
@@ -1198,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>44137</v>
       </c>
@@ -1215,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>44167</v>
       </c>
@@ -1232,9 +1247,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B45" s="2">
         <v>0</v>
@@ -1249,9 +1264,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -1266,9 +1281,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B47" s="2">
         <v>0</v>
@@ -1283,9 +1298,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B48" s="2">
         <v>0</v>
@@ -1300,9 +1315,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -1317,9 +1332,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B50" s="2">
         <v>2</v>
@@ -1334,9 +1349,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B51" s="2">
         <v>0</v>
@@ -1351,9 +1366,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B52" s="2">
         <v>0</v>
@@ -1368,9 +1383,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B53" s="2">
         <v>0</v>
@@ -1385,9 +1400,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B54" s="2">
         <v>0</v>
@@ -1402,9 +1417,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B55" s="2">
         <v>0</v>
@@ -1419,9 +1434,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B56" s="2">
         <v>0</v>
@@ -1436,9 +1451,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B57" s="2">
         <v>23</v>
@@ -1453,9 +1468,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B58" s="2">
         <v>0</v>
@@ -1470,9 +1485,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B59" s="2">
         <v>0</v>
@@ -1487,9 +1502,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B60" s="2">
         <v>0</v>
